--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/53_Konya_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/53_Konya_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B12C3D2-EC86-4337-8E27-082B013EAF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CDB9AD-3E56-4140-8055-02239C5D3CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{56761607-D2F3-4490-96A0-E87B45F9795F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{EDA0142B-6403-46E9-85BA-E70218487189}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -926,13 +926,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{239408BF-5CC3-4D24-88C8-08C6F7E61D8A}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5A021026-1F67-4471-BD85-E14B0E836FD9}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{FD19C70B-72A6-4E69-A0CF-AEABFA2B4C11}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E633512A-1437-411F-8390-833D6EB47EC6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{C95C9766-869B-4B8E-A7C2-F013A82B8928}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{110299C9-5B09-4D1C-A5ED-EE7E76CDC592}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{26F76BD9-822E-4C4D-8109-C71283FB35ED}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A99B189C-C383-4B73-ADD4-321F5D859E1B}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BFE7EDB6-E869-4B5F-B0D0-B2AF2DC67F50}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{BE85A8E0-B254-4816-8479-4149596286E5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{3C20B8AF-59A2-44C0-B4F1-463416B5A8A1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{E894479C-689D-4BDD-A644-3D27CF758307}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{38B44DE6-5A4E-4FE6-B6EB-E0DF462A4971}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{305163F2-07F3-4E6D-B2C2-76F1817D6A94}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1302,7 +1302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B441235-37BB-4C07-B5F6-10B731267772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDFFC70-934C-4C83-919D-1DA81DB9E68A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2622,7 +2622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3982E59-9A7B-4929-B0AE-AAC97058100D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FCF485-8648-4B95-B0E1-26E819532E2E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3889,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC7808-3D13-42BB-98FD-1C6D9FF7B544}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97325A3D-8F11-46F5-ADF6-E4B2508382FA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5152,7 +5152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76B0201-3835-4CEB-95C9-A939784A15C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DE3810-87F7-44BE-BD9A-FFEAC557636F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6405,7 +6405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9842E76-509F-48E6-9F42-6C4EF33FD300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304E88F5-A20A-4922-93D8-5EAF0C3F8C4E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7718,7 +7718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D2E76-6152-4D61-9C0A-6400E6B317E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADCC2E6-A8F7-4CDF-897E-F043E8D735C7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9031,7 +9031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA02467-FD0C-4875-8240-F0355B36E1AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38F24ED-6B75-4DAC-90A3-C49EFED51CDE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10338,7 +10338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946ADDDA-2EFE-4488-85C1-10ED093A0C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAB693E-EB18-4532-8824-E1101210AAFF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11645,7 +11645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27B9441-8275-4369-A0B7-33EAA5C516FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE1675E-DC4B-4894-9E36-CABADB03CAD3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12948,7 +12948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EC47E8-3A31-43F5-8CB5-03A780C5ABE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1525193B-8770-43FF-888E-5A4059061B83}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14239,7 +14239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9246005F-CE00-493A-8823-073676FC7876}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A57016-166E-409F-B4E5-AEDDDBF73B30}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15526,7 +15526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B922207-06C9-4BB6-AC45-198BCB0AC3F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51B7CF8-7611-4E04-B0CE-E02A43A8A090}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
